--- a/Pew Issue Polling 2022.xlsx
+++ b/Pew Issue Polling 2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93e204b33667c00b/Data Science/Milestone I/Team Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="184" documentId="13_ncr:1_{6FE855BD-3D30-4B86-9139-7CD82BFD13A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29EAC810-E5D9-42BE-AA54-654B04F59DAD}"/>
+  <xr:revisionPtr revIDLastSave="242" documentId="13_ncr:1_{6FE855BD-3D30-4B86-9139-7CD82BFD13A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A5E9B56-0025-43BB-BBF8-A9AF8A257DED}"/>
   <bookViews>
-    <workbookView xWindow="13550" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9B322058-FDF6-4556-8742-D7743EEEB939}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9B322058-FDF6-4556-8742-D7743EEEB939}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>Economy</t>
   </si>
@@ -113,12 +113,6 @@
     <t>Shift in importance March - OctoberTotal</t>
   </si>
   <si>
-    <t>rights,murder,violation,body,abortion,pro choice,pro-choice,pro life,pro-life,dobbs,anti,right,individual,government</t>
-  </si>
-  <si>
-    <t>education,schools,teachers</t>
-  </si>
-  <si>
     <t>immigration,migration,immigrants, migrants,assylum,southern border</t>
   </si>
   <si>
@@ -131,78 +125,27 @@
     <t>guns,mass shooting,mass shootings, second ammendment,assault weapons</t>
   </si>
   <si>
-    <t>energy policy,green new deal, renewable energy,renewables,wind, solar,electrification,fossil fuels</t>
-  </si>
-  <si>
     <t>economy,inflation,jobs,wages,unemployment, salaries</t>
   </si>
   <si>
     <t>black lives matter,blm,police misconduct,social justice</t>
   </si>
   <si>
-    <t>supreme court, justices</t>
-  </si>
-  <si>
-    <t>small government,big government,spending cuts</t>
-  </si>
-  <si>
     <t>climate change,global warming</t>
   </si>
   <si>
     <t>election fraud,voter supression,fake electors,january 6,january 6th</t>
   </si>
   <si>
-    <t>foreign policy,ukraine,russia,china,nato,alliance,putin,xi,jinping</t>
-  </si>
-  <si>
-    <t>coronavirus,covid,pandemic</t>
-  </si>
-  <si>
     <t>investigation,investigations</t>
   </si>
   <si>
-    <t>january 6,classified documents,taxes,trump,classified documents,mar-a-lago,mar a lago,investigation,investigations</t>
-  </si>
-  <si>
-    <t>laptop,burisma,classified documents,hunter,biden,ukraine,china,investigation,investigations</t>
-  </si>
-  <si>
-    <t>freedom,democracy,dictator,weapons,nato,alliance,autocracy,authoritarian, ukraine,russia,china,nato,alliance,putin,xi,jinping,corruption,corrupt,fraud,hoax,cold war,nuclear</t>
-  </si>
-  <si>
-    <t>coronavirus,covid,pandemic,mandates,safety,protect,tyranny,authoritarian</t>
-  </si>
-  <si>
-    <t>election fraud,voter supression,jim crow,january 6,january 6th,big lie,claims,fake electors,mike pence</t>
-  </si>
-  <si>
     <t>energy policy,green new deal,renewable energy,renewables,wind,solar,oil,electrification,fossil fuels,climate change,hoax,fraud,corrupt</t>
   </si>
   <si>
-    <t>black lives matter,blm,police,misconduct,social justice,protests,riots</t>
-  </si>
-  <si>
-    <t>guns,mass shooting,mass shootings,second ammendment,assault weapons,ban,rights,deadly,dangerous,tyranny,government,take</t>
-  </si>
-  <si>
-    <t>energy policy,green new deal,renewable energy,renewables,wind,solar,oil,electrification,fossil fuels,climate change,debt,money,jobs</t>
-  </si>
-  <si>
     <t>drug,drugs,theft,violent,violence,chaos,society,dangerous,homeless,rule of law,law and order,police,gangs</t>
   </si>
   <si>
-    <t xml:space="preserve"> immigration,migration,crisis,migrants,assylum,legacy americans,replace,opportunity,opportunities,better life,seeking</t>
-  </si>
-  <si>
-    <t>books,book,ban,bans,banning,banned,parents,choice,funding,racial disparities,disparity,learning gap,teachers,gender,gay,lgbtq,rights,homophobic,dangerous,discrimination,discriminatory,nazis</t>
-  </si>
-  <si>
-    <t>avoidingNaNvalues</t>
-  </si>
-  <si>
-    <t>abortion,pro choice,+O1+B2:N2+A2:N2</t>
-  </si>
-  <si>
     <t>issue</t>
   </si>
   <si>
@@ -210,6 +153,75 @@
   </si>
   <si>
     <t>expanded dict</t>
+  </si>
+  <si>
+    <t>abortion,pro choice,pro-choice,pro life,pro-life,dobbs,anti-abortion,anti abortion</t>
+  </si>
+  <si>
+    <t>rights,murder,violation,body,right,individual,government</t>
+  </si>
+  <si>
+    <t>education,schools,school,teachers,teacher,class,classroom,classrooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> crisis,legacy americans,replace,opportunity,opportunities,better life,seeking</t>
+  </si>
+  <si>
+    <t>ban,rights,deadly,dangerous,tyranny,government,take</t>
+  </si>
+  <si>
+    <t>climate change,debt,money,jobs</t>
+  </si>
+  <si>
+    <t>energy policy,green new deal, renewable energy,renewables,wind, solar,electrification,fossil fuels,oil,coal,nuclear power</t>
+  </si>
+  <si>
+    <t>good,bad,great,terrible,aweful,horrible,poor,rich,wealthy,tax cuts,biden,trump,better,worse</t>
+  </si>
+  <si>
+    <t>riots,protests,white privilege,murder,rights,right,unarmed,black,white,treatment,fair,unfair,better,worse,racist,racists</t>
+  </si>
+  <si>
+    <t>supreme court,justices</t>
+  </si>
+  <si>
+    <t>conservative,liberal,trump,biden,values,rights,dismantle,dismantling,destroy,destroying</t>
+  </si>
+  <si>
+    <t>small government,big government,spending cuts,debt ceiling,government debt</t>
+  </si>
+  <si>
+    <t>debt,shutdown,default,bad,consequences,</t>
+  </si>
+  <si>
+    <t>foreign policy,ukraine,russia,china,nato,putin,xi,jinping,war</t>
+  </si>
+  <si>
+    <t>freedom,democracy,dictator,weapons,autocracy,authoritarian,alliance,corruption,corrupt,fraud,hoax,cold war,nuclear,military industrial complex,greed,thug,corporations,brave,valiant,home</t>
+  </si>
+  <si>
+    <t>coronavirus,covid,pandemic,vaccine,vaccines</t>
+  </si>
+  <si>
+    <t>coronavirus,covid,pandemic,mandates,safety,protect,tyranny,authoritarian,mask,masks,Fauci,lie,false,dangerous,deadly,die,dying,dead</t>
+  </si>
+  <si>
+    <t>laptop,burisma,classified documents,hunter,biden,ukraine,china,corrupt,crime,hoax,fraud,greed,grift,collude,collusion,</t>
+  </si>
+  <si>
+    <t>january 6,classified documents,taxes,trump,classified documents,mar-a-lago,mar a lago,china,corrupt,crime,hoax,fraud,greed,grift,collude,collusion,moscow,russia</t>
+  </si>
+  <si>
+    <t>jim crow,big lie,claims,mike pence,hoax,lying,not true,false,story,police,defend,riot,protest,persecuted,persecute,jail,prosecute,prosecuted,insurrection,seditious conspiracy,sedition</t>
+  </si>
+  <si>
+    <t>future of democracy,future of the country,nation's future</t>
+  </si>
+  <si>
+    <t>future,safe,election,fraud,hoax,big lie,insurrection,january 6,january 6th,fake electors,plot,coup,scheme,woke,tyranny,rights,right,fear,dictatorship,dictator,fascist,fascists,communist,communists,radical,extremist,extremists</t>
+  </si>
+  <si>
+    <t>books,book,ban,bans,banning,banned,parents,choice,funding,racial disparities,disparity,learning gap,teachers,gender,gay,lgbtq,rights,homophobic,dangerous,discrimination,discriminatory,nazis,ideology,brainwash,children,kids,child,trans,transgender</t>
   </si>
 </sst>
 </file>
@@ -648,7 +660,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,7 +675,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>20</v>
@@ -702,10 +714,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="39" x14ac:dyDescent="0.25">
@@ -749,13 +761,13 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="77.25" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -796,13 +808,13 @@
         <v>0</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="64.5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="39" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -843,10 +855,10 @@
         <v>1.9999999999999962E-2</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="39" x14ac:dyDescent="0.25">
@@ -890,10 +902,10 @@
         <v>-1.9999999999999962E-2</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -937,13 +949,13 @@
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="51.75" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -984,13 +996,13 @@
         <v>7.999999999999996E-2</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="39" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1031,10 +1043,10 @@
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
@@ -1078,13 +1090,13 @@
         <v>-3.0000000000000027E-2</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="39" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1125,13 +1137,13 @@
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1172,13 +1184,13 @@
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="39" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1219,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="39" x14ac:dyDescent="0.25">
@@ -1266,13 +1278,13 @@
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="39" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -1313,13 +1325,13 @@
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="51.75" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -1360,13 +1372,13 @@
         <v>-4.0000000000000036E-2</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="39" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1407,13 +1419,13 @@
         <v>-0.14000000000000001</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1436,10 +1448,10 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1465,10 +1477,10 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1494,10 +1506,10 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Pew Issue Polling 2022.xlsx
+++ b/Pew Issue Polling 2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93e204b33667c00b/Data Science/Milestone I/Team Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="242" documentId="13_ncr:1_{6FE855BD-3D30-4B86-9139-7CD82BFD13A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A5E9B56-0025-43BB-BBF8-A9AF8A257DED}"/>
+  <xr:revisionPtr revIDLastSave="265" documentId="13_ncr:1_{6FE855BD-3D30-4B86-9139-7CD82BFD13A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09C49B41-5208-4353-AC5F-57C496DC752D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9B322058-FDF6-4556-8742-D7743EEEB939}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>Economy</t>
   </si>
@@ -113,115 +113,64 @@
     <t>Shift in importance March - OctoberTotal</t>
   </si>
   <si>
-    <t>immigration,migration,immigrants, migrants,assylum,southern border</t>
-  </si>
-  <si>
-    <t>crime</t>
-  </si>
-  <si>
-    <t>health care</t>
-  </si>
-  <si>
-    <t>guns,mass shooting,mass shootings, second ammendment,assault weapons</t>
-  </si>
-  <si>
-    <t>economy,inflation,jobs,wages,unemployment, salaries</t>
-  </si>
-  <si>
-    <t>black lives matter,blm,police misconduct,social justice</t>
-  </si>
-  <si>
     <t>climate change,global warming</t>
   </si>
   <si>
-    <t>election fraud,voter supression,fake electors,january 6,january 6th</t>
-  </si>
-  <si>
-    <t>investigation,investigations</t>
-  </si>
-  <si>
-    <t>energy policy,green new deal,renewable energy,renewables,wind,solar,oil,electrification,fossil fuels,climate change,hoax,fraud,corrupt</t>
-  </si>
-  <si>
-    <t>drug,drugs,theft,violent,violence,chaos,society,dangerous,homeless,rule of law,law and order,police,gangs</t>
-  </si>
-  <si>
     <t>issue</t>
   </si>
   <si>
-    <t>primary dict</t>
-  </si>
-  <si>
-    <t>expanded dict</t>
-  </si>
-  <si>
-    <t>abortion,pro choice,pro-choice,pro life,pro-life,dobbs,anti-abortion,anti abortion</t>
-  </si>
-  <si>
-    <t>rights,murder,violation,body,right,individual,government</t>
-  </si>
-  <si>
-    <t>education,schools,school,teachers,teacher,class,classroom,classrooms</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> crisis,legacy americans,replace,opportunity,opportunities,better life,seeking</t>
-  </si>
-  <si>
-    <t>ban,rights,deadly,dangerous,tyranny,government,take</t>
-  </si>
-  <si>
-    <t>climate change,debt,money,jobs</t>
-  </si>
-  <si>
-    <t>energy policy,green new deal, renewable energy,renewables,wind, solar,electrification,fossil fuels,oil,coal,nuclear power</t>
-  </si>
-  <si>
-    <t>good,bad,great,terrible,aweful,horrible,poor,rich,wealthy,tax cuts,biden,trump,better,worse</t>
-  </si>
-  <si>
-    <t>riots,protests,white privilege,murder,rights,right,unarmed,black,white,treatment,fair,unfair,better,worse,racist,racists</t>
-  </si>
-  <si>
     <t>supreme court,justices</t>
   </si>
   <si>
-    <t>conservative,liberal,trump,biden,values,rights,dismantle,dismantling,destroy,destroying</t>
-  </si>
-  <si>
     <t>small government,big government,spending cuts,debt ceiling,government debt</t>
   </si>
   <si>
-    <t>debt,shutdown,default,bad,consequences,</t>
-  </si>
-  <si>
-    <t>foreign policy,ukraine,russia,china,nato,putin,xi,jinping,war</t>
-  </si>
-  <si>
-    <t>freedom,democracy,dictator,weapons,autocracy,authoritarian,alliance,corruption,corrupt,fraud,hoax,cold war,nuclear,military industrial complex,greed,thug,corporations,brave,valiant,home</t>
-  </si>
-  <si>
-    <t>coronavirus,covid,pandemic,vaccine,vaccines</t>
-  </si>
-  <si>
-    <t>coronavirus,covid,pandemic,mandates,safety,protect,tyranny,authoritarian,mask,masks,Fauci,lie,false,dangerous,deadly,die,dying,dead</t>
-  </si>
-  <si>
-    <t>laptop,burisma,classified documents,hunter,biden,ukraine,china,corrupt,crime,hoax,fraud,greed,grift,collude,collusion,</t>
-  </si>
-  <si>
-    <t>january 6,classified documents,taxes,trump,classified documents,mar-a-lago,mar a lago,china,corrupt,crime,hoax,fraud,greed,grift,collude,collusion,moscow,russia</t>
-  </si>
-  <si>
-    <t>jim crow,big lie,claims,mike pence,hoax,lying,not true,false,story,police,defend,riot,protest,persecuted,persecute,jail,prosecute,prosecuted,insurrection,seditious conspiracy,sedition</t>
-  </si>
-  <si>
-    <t>future of democracy,future of the country,nation's future</t>
-  </si>
-  <si>
-    <t>future,safe,election,fraud,hoax,big lie,insurrection,january 6,january 6th,fake electors,plot,coup,scheme,woke,tyranny,rights,right,fear,dictatorship,dictator,fascist,fascists,communist,communists,radical,extremist,extremists</t>
-  </si>
-  <si>
-    <t>books,book,ban,bans,banning,banned,parents,choice,funding,racial disparities,disparity,learning gap,teachers,gender,gay,lgbtq,rights,homophobic,dangerous,discrimination,discriminatory,nazis,ideology,brainwash,children,kids,child,trans,transgender</t>
+    <t>immigration,migration,immigrants,migrants,assylum,southern border</t>
+  </si>
+  <si>
+    <t>energy policy,green new deal,renewable energy,renewables,wind,solar,electrification,fossil fuels,oil,coal,nuclear power</t>
+  </si>
+  <si>
+    <t>crime,theft,violent,violence,homeless,rule of law,law and order,gangs</t>
+  </si>
+  <si>
+    <t>abortion,anti abortion,pro choice,pro life,roe,wade,dobbs,reproductive rights,third trimester,terminate pregnancy,my body my choice</t>
+  </si>
+  <si>
+    <t>education,schools,school,teachers,teacher,class,classroom,classrooms,book ban,parents,school funding,learning,students</t>
+  </si>
+  <si>
+    <t>health care,health insurance,uninsured,obamacare,affordable care act</t>
+  </si>
+  <si>
+    <t>guns,mass shooting,mass shootings,second ammendment,right to bear arms,assault weapons,assault weapon ban</t>
+  </si>
+  <si>
+    <t>economy,economic,inflation,jobs,wages,unemployment,prices,markets,stock market,stocks,layoffs,wage growth</t>
+  </si>
+  <si>
+    <t>black lives matter,blm,blm protests,police misconduct,social justice,kyle rittenhouse,george floyd,blue lives matter,all lives matter,racists,racism,unarmed,white privilege,equity,equality,diversity</t>
+  </si>
+  <si>
+    <t>election fraud,voter supression,fake electors,election integrity,voting restrictions,stolen election,dominion,voting machines</t>
+  </si>
+  <si>
+    <t>trump investigation,trump investigations,mar-a-lago classified documents,mueller</t>
+  </si>
+  <si>
+    <t>biden investigation,biden investigations,hunter biden,laptop,burisma,delaware classified documents</t>
+  </si>
+  <si>
+    <t>dict</t>
+  </si>
+  <si>
+    <t>coronavirus,covid,pandemic,vaccine,vaccines,masks,virus,fauci,mask mandate</t>
+  </si>
+  <si>
+    <t>future of democracy,democracy in jeopardy,january 6,january 6th,attempted coup,insurrection,seditious conspiracy,sedition,capitol riot,capitol protest</t>
+  </si>
+  <si>
+    <t>foreign policy,war in ukraine,donbass,crimea,war,russian invasion,china,nato,putin,xi,jinping,sanctions,taiwan,international,world leaders,north korea,european union,israel,iran,afghanistan</t>
   </si>
 </sst>
 </file>
@@ -252,35 +201,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -318,11 +260,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -330,13 +302,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -657,9 +626,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A001545-9124-4A37-A664-E811195959EB}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
@@ -670,12 +639,11 @@
     <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" customWidth="1"/>
     <col min="14" max="14" width="33" customWidth="1"/>
-    <col min="15" max="15" width="40.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>20</v>
@@ -713,14 +681,11 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="39" x14ac:dyDescent="0.25">
+      <c r="N1" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -760,14 +725,11 @@
       <c r="M2" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="N2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="N2" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -807,14 +769,11 @@
       <c r="M3" s="3">
         <v>0</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="39" x14ac:dyDescent="0.25">
+      <c r="N3" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -854,14 +813,11 @@
       <c r="M4" s="3">
         <v>1.9999999999999962E-2</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="39" x14ac:dyDescent="0.25">
+      <c r="N4" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -901,14 +857,11 @@
       <c r="M5" s="3">
         <v>-1.9999999999999962E-2</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N5" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -948,14 +901,11 @@
       <c r="M6" s="3">
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="N6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="N6" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -995,14 +945,11 @@
       <c r="M7" s="3">
         <v>7.999999999999996E-2</v>
       </c>
-      <c r="N7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="N7" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1042,14 +989,11 @@
       <c r="M8" s="3">
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="N8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="N8" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -1089,14 +1033,11 @@
       <c r="M9" s="3">
         <v>-3.0000000000000027E-2</v>
       </c>
-      <c r="N9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="39" x14ac:dyDescent="0.25">
+      <c r="N9" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1136,14 +1077,11 @@
       <c r="M10" s="3">
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="N10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="N10" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1183,14 +1121,11 @@
       <c r="M11" s="3">
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="N11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="39" x14ac:dyDescent="0.25">
+      <c r="N11" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1230,14 +1165,11 @@
       <c r="M12" s="3">
         <v>0</v>
       </c>
-      <c r="N12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="39" x14ac:dyDescent="0.25">
+      <c r="N12" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1277,14 +1209,11 @@
       <c r="M13" s="3">
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="N13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="N13" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -1324,14 +1253,11 @@
       <c r="M14" s="3">
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="N14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="N14" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -1371,14 +1297,11 @@
       <c r="M15" s="3">
         <v>-4.0000000000000036E-2</v>
       </c>
-      <c r="N15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="39" x14ac:dyDescent="0.25">
+      <c r="N15" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1419,13 +1342,10 @@
         <v>-0.14000000000000001</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="64.5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1447,14 +1367,11 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N17" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -1476,14 +1393,11 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-      <c r="N18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N18" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -1505,11 +1419,8 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-      <c r="N19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>55</v>
+      <c r="N19" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Pew Issue Polling 2022.xlsx
+++ b/Pew Issue Polling 2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93e204b33667c00b/Data Science/Milestone I/Team Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="265" documentId="13_ncr:1_{6FE855BD-3D30-4B86-9139-7CD82BFD13A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09C49B41-5208-4353-AC5F-57C496DC752D}"/>
+  <xr:revisionPtr revIDLastSave="281" documentId="13_ncr:1_{6FE855BD-3D30-4B86-9139-7CD82BFD13A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8C4C2C2-79EB-4D23-B188-7004DC995491}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9B322058-FDF6-4556-8742-D7743EEEB939}"/>
   </bookViews>
@@ -119,9 +119,6 @@
     <t>issue</t>
   </si>
   <si>
-    <t>supreme court,justices</t>
-  </si>
-  <si>
     <t>small government,big government,spending cuts,debt ceiling,government debt</t>
   </si>
   <si>
@@ -131,15 +128,9 @@
     <t>energy policy,green new deal,renewable energy,renewables,wind,solar,electrification,fossil fuels,oil,coal,nuclear power</t>
   </si>
   <si>
-    <t>crime,theft,violent,violence,homeless,rule of law,law and order,gangs</t>
-  </si>
-  <si>
     <t>abortion,anti abortion,pro choice,pro life,roe,wade,dobbs,reproductive rights,third trimester,terminate pregnancy,my body my choice</t>
   </si>
   <si>
-    <t>education,schools,school,teachers,teacher,class,classroom,classrooms,book ban,parents,school funding,learning,students</t>
-  </si>
-  <si>
     <t>health care,health insurance,uninsured,obamacare,affordable care act</t>
   </si>
   <si>
@@ -161,23 +152,32 @@
     <t>biden investigation,biden investigations,hunter biden,laptop,burisma,delaware classified documents</t>
   </si>
   <si>
-    <t>dict</t>
-  </si>
-  <si>
     <t>coronavirus,covid,pandemic,vaccine,vaccines,masks,virus,fauci,mask mandate</t>
   </si>
   <si>
     <t>future of democracy,democracy in jeopardy,january 6,january 6th,attempted coup,insurrection,seditious conspiracy,sedition,capitol riot,capitol protest</t>
   </si>
   <si>
-    <t>foreign policy,war in ukraine,donbass,crimea,war,russian invasion,china,nato,putin,xi,jinping,sanctions,taiwan,international,world leaders,north korea,european union,israel,iran,afghanistan</t>
+    <t>primary dict</t>
+  </si>
+  <si>
+    <t>crime,criminals,theft,violent crime,criminal violence,homeless,rule of law,law and order,gangs</t>
+  </si>
+  <si>
+    <t>foreign policy,war,china,nato,putin,xi,jinping,sanctions,taiwan,international,world leaders,north korea,european union,israel,iran,afghanistan</t>
+  </si>
+  <si>
+    <t>education,schools,school,teachers,teacher,classroom,classrooms,book bans,banned book,parents,school funding,students,age appropriate,sex ed</t>
+  </si>
+  <si>
+    <t>supreme court nomination,supreme court appointee,justices,appoint judges</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,13 +188,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -222,7 +215,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -242,21 +235,6 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -305,7 +283,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -628,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A001545-9124-4A37-A664-E811195959EB}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,7 +616,7 @@
     <col min="8" max="8" width="9.42578125" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" customWidth="1"/>
-    <col min="14" max="14" width="33" customWidth="1"/>
+    <col min="14" max="14" width="33" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -681,8 +659,8 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>40</v>
+      <c r="N1" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -725,11 +703,11 @@
       <c r="M2" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N2" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -769,8 +747,8 @@
       <c r="M3" s="3">
         <v>0</v>
       </c>
-      <c r="N3" s="6" t="s">
-        <v>32</v>
+      <c r="N3" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -813,11 +791,11 @@
       <c r="M4" s="3">
         <v>1.9999999999999962E-2</v>
       </c>
-      <c r="N4" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -857,8 +835,8 @@
       <c r="M5" s="3">
         <v>-1.9999999999999962E-2</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>30</v>
+      <c r="N5" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -901,8 +879,8 @@
       <c r="M6" s="3">
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="N6" s="6" t="s">
-        <v>33</v>
+      <c r="N6" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -945,8 +923,8 @@
       <c r="M7" s="3">
         <v>7.999999999999996E-2</v>
       </c>
-      <c r="N7" s="6" t="s">
-        <v>34</v>
+      <c r="N7" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -989,8 +967,8 @@
       <c r="M8" s="3">
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="N8" s="6" t="s">
-        <v>29</v>
+      <c r="N8" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1033,8 +1011,8 @@
       <c r="M9" s="3">
         <v>-3.0000000000000027E-2</v>
       </c>
-      <c r="N9" s="6" t="s">
-        <v>35</v>
+      <c r="N9" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="78" thickBot="1" x14ac:dyDescent="0.3">
@@ -1077,11 +1055,11 @@
       <c r="M10" s="3">
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="N10" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N10" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1121,8 +1099,8 @@
       <c r="M11" s="3">
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="N11" s="6" t="s">
-        <v>26</v>
+      <c r="N11" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1165,8 +1143,8 @@
       <c r="M12" s="3">
         <v>0</v>
       </c>
-      <c r="N12" s="6" t="s">
-        <v>27</v>
+      <c r="N12" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1209,7 +1187,7 @@
       <c r="M13" s="3">
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="N13" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1253,11 +1231,11 @@
       <c r="M14" s="3">
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="N14" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N14" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -1297,8 +1275,8 @@
       <c r="M15" s="3">
         <v>-4.0000000000000036E-2</v>
       </c>
-      <c r="N15" s="6" t="s">
-        <v>43</v>
+      <c r="N15" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -1341,8 +1319,8 @@
       <c r="M16" s="3">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="N16" s="4" t="s">
-        <v>41</v>
+      <c r="N16" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="78" thickBot="1" x14ac:dyDescent="0.3">
@@ -1367,11 +1345,11 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N17" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -1393,11 +1371,11 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-      <c r="N18" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N18" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -1419,8 +1397,8 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-      <c r="N19" s="6" t="s">
-        <v>39</v>
+      <c r="N19" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Pew Issue Polling 2022.xlsx
+++ b/Pew Issue Polling 2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93e204b33667c00b/Data Science/Milestone I/Team Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="281" documentId="13_ncr:1_{6FE855BD-3D30-4B86-9139-7CD82BFD13A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8C4C2C2-79EB-4D23-B188-7004DC995491}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{6C99AB41-5F34-4A41-95EF-8104B866C61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91CF3058-BE12-4D7A-9D7C-8AF178FBFFC8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9B322058-FDF6-4556-8742-D7743EEEB939}"/>
   </bookViews>
@@ -128,9 +128,6 @@
     <t>energy policy,green new deal,renewable energy,renewables,wind,solar,electrification,fossil fuels,oil,coal,nuclear power</t>
   </si>
   <si>
-    <t>abortion,anti abortion,pro choice,pro life,roe,wade,dobbs,reproductive rights,third trimester,terminate pregnancy,my body my choice</t>
-  </si>
-  <si>
     <t>health care,health insurance,uninsured,obamacare,affordable care act</t>
   </si>
   <si>
@@ -140,9 +137,6 @@
     <t>economy,economic,inflation,jobs,wages,unemployment,prices,markets,stock market,stocks,layoffs,wage growth</t>
   </si>
   <si>
-    <t>black lives matter,blm,blm protests,police misconduct,social justice,kyle rittenhouse,george floyd,blue lives matter,all lives matter,racists,racism,unarmed,white privilege,equity,equality,diversity</t>
-  </si>
-  <si>
     <t>election fraud,voter supression,fake electors,election integrity,voting restrictions,stolen election,dominion,voting machines</t>
   </si>
   <si>
@@ -152,25 +146,31 @@
     <t>biden investigation,biden investigations,hunter biden,laptop,burisma,delaware classified documents</t>
   </si>
   <si>
-    <t>coronavirus,covid,pandemic,vaccine,vaccines,masks,virus,fauci,mask mandate</t>
-  </si>
-  <si>
-    <t>future of democracy,democracy in jeopardy,january 6,january 6th,attempted coup,insurrection,seditious conspiracy,sedition,capitol riot,capitol protest</t>
-  </si>
-  <si>
     <t>primary dict</t>
   </si>
   <si>
-    <t>crime,criminals,theft,violent crime,criminal violence,homeless,rule of law,law and order,gangs</t>
-  </si>
-  <si>
-    <t>foreign policy,war,china,nato,putin,xi,jinping,sanctions,taiwan,international,world leaders,north korea,european union,israel,iran,afghanistan</t>
-  </si>
-  <si>
-    <t>education,schools,school,teachers,teacher,classroom,classrooms,book bans,banned book,parents,school funding,students,age appropriate,sex ed</t>
-  </si>
-  <si>
-    <t>supreme court nomination,supreme court appointee,justices,appoint judges</t>
+    <t>abortion,anti abortion,pro choice,pro life,roe,wade,dobbs,reproductive rights,third trimester,terminate pregnancy</t>
+  </si>
+  <si>
+    <t>education,schools,school,teachers,teacher,classroom,classrooms,book ban,parents,school funding,learning,students</t>
+  </si>
+  <si>
+    <t>violent crime,crime,criminals,theft,violent,violence,homeless,rule of law,law and order,gangs</t>
+  </si>
+  <si>
+    <t>black lives matter,blm,kyle,racists,racism,unarmed,white privilege,equity,equality,diversity</t>
+  </si>
+  <si>
+    <t>supreme court,justices</t>
+  </si>
+  <si>
+    <t>foreign policy,ukraine,russia,china,nato,putin,xi,jinping,war,sanctions,taiwan,international</t>
+  </si>
+  <si>
+    <t>coronavirus,covid,pandemic,vaccine,vaccines</t>
+  </si>
+  <si>
+    <t>future of democracy,january 6,january 6th,insurrection,seditious,sedition</t>
   </si>
 </sst>
 </file>
@@ -215,7 +215,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -268,11 +268,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -284,6 +299,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -301,10 +319,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -606,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A001545-9124-4A37-A664-E811195959EB}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,7 +674,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -703,11 +717,11 @@
       <c r="M2" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N2" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -748,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -795,7 +809,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -836,7 +850,7 @@
         <v>-1.9999999999999962E-2</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -880,7 +894,7 @@
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -924,7 +938,7 @@
         <v>7.999999999999996E-2</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1012,10 +1026,10 @@
         <v>-3.0000000000000027E-2</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1056,10 +1070,10 @@
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1100,7 +1114,7 @@
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1232,10 +1246,10 @@
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -1320,10 +1334,10 @@
         <v>-0.14000000000000001</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1346,7 +1360,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1372,7 +1386,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1398,7 +1412,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
